--- a/Input/GIG/benefits.xlsx
+++ b/Input/GIG/benefits.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">GIG</t>
   </si>
   <si>
-    <t xml:space="preserve">UAE-AbuDhabi</t>
+    <t xml:space="preserve">NE/Dubai</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -280,6 +280,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,11 +360,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,10 +392,10 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.65"/>
@@ -479,7 +488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -555,7 +564,7 @@
       <c r="Y2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="AA2" s="0" t="s">
@@ -565,7 +574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -635,9 +644,10 @@
       <c r="W3" s="0" t="s">
         <v>55</v>
       </c>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -708,7 +718,7 @@
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -776,7 +786,7 @@
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
